--- a/analyses/Cys/cases-by-rosetta.xlsx
+++ b/analyses/Cys/cases-by-rosetta.xlsx
@@ -727,7 +727,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>cases with &gt;= 1 acquired cysteine</t>
+          <t>cases with &gt;= 1 acquired Cys</t>
         </is>
       </c>
       <c r="B2">

--- a/analyses/Cys/cases-by-rosetta.xlsx
+++ b/analyses/Cys/cases-by-rosetta.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BU3"/>
+  <dimension ref="A1:BO3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -555,170 +555,140 @@
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>70547</t>
+          <t>70607</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>70607</t>
+          <t>70627</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>70627</t>
+          <t>70637</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>70637</t>
+          <t>81603</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>81603</t>
+          <t>83173</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>83173</t>
+          <t>83703</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>83703</t>
+          <t>87443</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>87443</t>
+          <t>89503</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>89503</t>
+          <t>89603</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>89603</t>
+          <t>89633</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>89633</t>
+          <t>90703</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>90203</t>
+          <t>90853</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>90703</t>
+          <t>91203</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>90713</t>
+          <t>92603</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>90803</t>
+          <t>93823</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>90853</t>
+          <t>94213</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>91203</t>
+          <t>94403</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>92603</t>
+          <t>95003</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>93823</t>
+          <t>95403</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>94213</t>
+          <t>96733</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>94403</t>
+          <t>96803</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>95003</t>
+          <t>97013</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>95403</t>
+          <t>97093</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>96733</t>
+          <t>97323</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>96803</t>
+          <t>98233</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>97003</t>
+          <t>98353</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>97013</t>
+          <t>98613</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>97093</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>97323</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>98233</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>98353</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>98613</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>99453</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>99893</t>
         </is>
@@ -845,105 +815,87 @@
         <v>35</v>
       </c>
       <c r="AN2">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="AO2">
+        <v>38</v>
+      </c>
+      <c r="AP2">
+        <v>71</v>
+      </c>
+      <c r="AQ2">
+        <v>59</v>
+      </c>
+      <c r="AR2">
+        <v>134</v>
+      </c>
+      <c r="AS2">
+        <v>72</v>
+      </c>
+      <c r="AT2">
+        <v>33</v>
+      </c>
+      <c r="AU2">
+        <v>42</v>
+      </c>
+      <c r="AV2">
+        <v>14</v>
+      </c>
+      <c r="AW2">
+        <v>13</v>
+      </c>
+      <c r="AX2">
+        <v>15</v>
+      </c>
+      <c r="AY2">
+        <v>11</v>
+      </c>
+      <c r="AZ2">
+        <v>30</v>
+      </c>
+      <c r="BA2">
+        <v>121</v>
+      </c>
+      <c r="BB2">
+        <v>85</v>
+      </c>
+      <c r="BC2">
+        <v>10</v>
+      </c>
+      <c r="BD2">
+        <v>361</v>
+      </c>
+      <c r="BE2">
+        <v>49</v>
+      </c>
+      <c r="BF2">
+        <v>17</v>
+      </c>
+      <c r="BG2">
         <v>19</v>
       </c>
-      <c r="AP2">
-        <v>38</v>
-      </c>
-      <c r="AQ2">
-        <v>71</v>
-      </c>
-      <c r="AR2">
-        <v>59</v>
-      </c>
-      <c r="AS2">
-        <v>134</v>
-      </c>
-      <c r="AT2">
-        <v>72</v>
-      </c>
-      <c r="AU2">
-        <v>33</v>
-      </c>
-      <c r="AV2">
-        <v>42</v>
-      </c>
-      <c r="AW2">
-        <v>14</v>
-      </c>
-      <c r="AX2">
-        <v>13</v>
-      </c>
-      <c r="AY2">
-        <v>4</v>
-      </c>
-      <c r="AZ2">
-        <v>15</v>
-      </c>
-      <c r="BA2">
-        <v>3</v>
-      </c>
-      <c r="BB2">
-        <v>2</v>
-      </c>
-      <c r="BC2">
-        <v>11</v>
-      </c>
-      <c r="BD2">
-        <v>30</v>
-      </c>
-      <c r="BE2">
-        <v>121</v>
-      </c>
-      <c r="BF2">
-        <v>85</v>
-      </c>
-      <c r="BG2">
-        <v>10</v>
-      </c>
       <c r="BH2">
-        <v>361</v>
+        <v>528</v>
       </c>
       <c r="BI2">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="BJ2">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="BK2">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="BL2">
-        <v>528</v>
+        <v>325</v>
       </c>
       <c r="BM2">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="BN2">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="BO2">
-        <v>8</v>
-      </c>
-      <c r="BP2">
-        <v>152</v>
-      </c>
-      <c r="BQ2">
-        <v>325</v>
-      </c>
-      <c r="BR2">
-        <v>25</v>
-      </c>
-      <c r="BS2">
-        <v>114</v>
-      </c>
-      <c r="BT2">
-        <v>1</v>
-      </c>
-      <c r="BU2">
         <v>4</v>
       </c>
     </row>
@@ -954,7 +906,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>19261</v>
+        <v>19236</v>
       </c>
       <c r="C3">
         <v>61</v>
@@ -1068,105 +1020,87 @@
         <v>150</v>
       </c>
       <c r="AN3">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="AO3">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="AP3">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="AQ3">
         <v>91</v>
       </c>
       <c r="AR3">
+        <v>284</v>
+      </c>
+      <c r="AS3">
         <v>91</v>
       </c>
-      <c r="AS3">
-        <v>284</v>
-      </c>
       <c r="AT3">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="AU3">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AV3">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="AW3">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="AX3">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="AY3">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="AZ3">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="BA3">
-        <v>4</v>
+        <v>211</v>
       </c>
       <c r="BB3">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="BC3">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="BD3">
-        <v>36</v>
+        <v>388</v>
       </c>
       <c r="BE3">
-        <v>211</v>
+        <v>264</v>
       </c>
       <c r="BF3">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="BG3">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="BH3">
-        <v>388</v>
+        <v>1260</v>
       </c>
       <c r="BI3">
-        <v>264</v>
+        <v>26</v>
       </c>
       <c r="BJ3">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="BK3">
-        <v>29</v>
+        <v>204</v>
       </c>
       <c r="BL3">
-        <v>1260</v>
+        <v>716</v>
       </c>
       <c r="BM3">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="BN3">
-        <v>26</v>
+        <v>317</v>
       </c>
       <c r="BO3">
-        <v>12</v>
-      </c>
-      <c r="BP3">
-        <v>204</v>
-      </c>
-      <c r="BQ3">
-        <v>716</v>
-      </c>
-      <c r="BR3">
-        <v>73</v>
-      </c>
-      <c r="BS3">
-        <v>317</v>
-      </c>
-      <c r="BT3">
-        <v>4</v>
-      </c>
-      <c r="BU3">
         <v>17</v>
       </c>
     </row>
